--- a/medicine/Nettoyage et hygiène/Rasoir_droit/Rasoir_droit.xlsx
+++ b/medicine/Nettoyage et hygiène/Rasoir_droit/Rasoir_droit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un rasoir droit est un rasoir à lame fixe parfois interchangeable (selon les modèles), qui se replie dans la châsse (le manche) ; il est aussi appelé sabre, rasoir ouvert et, plus familièrement, « coupe-choux ». À l'origine, le mot désignait un sabre court[1] utilisé autrefois dans l'infanterie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un rasoir droit est un rasoir à lame fixe parfois interchangeable (selon les modèles), qui se replie dans la châsse (le manche) ; il est aussi appelé sabre, rasoir ouvert et, plus familièrement, « coupe-choux ». À l'origine, le mot désignait un sabre court utilisé autrefois dans l'infanterie.
 En raison du succès des rasoirs de sûreté ou à lame jetable (qui utilisent des lames uniques à double tranchant ou des cartouches multi-lames) ainsi que des rasoirs électriques dans les pays développés, l'utilisation du sabre y est rare. Les barbiers et les coiffeurs en ont toujours besoin bien que, pour des raisons d'hygiène, ils utilisent essentiellement des modèles à lames jetables. Le sabre nécessite, par ailleurs, un affilage régulier sur le cuir et, à l'occasion, un affûtage sur une pierre à aiguiser.
 Le rasage au sabre nécessite toutefois un court apprentissage et une certaine dextérité car sa lame ouverte peut sérieusement entailler la peau. Le temps de rasage est plus long que pour les autres types de rasoirs (environ 30 à 40 minutes pour un débutant, se réduisant progressivement à 12 à 15 minutes pour un usager régulier[réf. nécessaire]).
 </t>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La largeur de la lame d'un sabre est donnée en huitièmes de pouce. Les lames vont ainsi de 3/8 (0,9 cm ou 9,525 mm), 4/8 (1,3 cm ou 12,7 mm, pour les cheveux), 5/8 (1,6 cm ou 15,875 mm), 6/8 (1,9 cm ou 19,05 mm), 7/8 (2,2 cm ou 22,225 mm) à 8/8 (2,5 cm ou 25,4 mm, rares et difficiles à manier) mais certaines réalisations artisanales ou limitées peuvent aller bien au-delà. 
 Pour la barbe, la largeur normale est 5/8 ou parfois 6/8.
@@ -549,7 +563,9 @@
           <t>Méthode de rasage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut d'abord préparer la peau au rasage. Pour cela, il est possible de se raser après une douche ou un bain, ou encore d'appliquer des serviettes mouillées chaudes sur le visage, comme il est de coutume chez les barbiers.
 Ensuite vient l'application du savon à barbe à l'aide d'un blaireau. Il est aussi possible d'utiliser de la mousse à raser. Certains barbiers travaillent sans faire usage de savon.
@@ -584,7 +600,9 @@
           <t>Entretien</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'affilage sur le cuir est obligatoire avant toute utilisation. Un aiguisage sur la pierre, qui peut être réalisé par un spécialiste des rasoirs droits, devient alors nécessaire entre environ une fois par an à une fois tous les deux ans, selon la fréquence de rasage, la dureté du poil de l'utilisateur et la qualité du rasoir utilisé.
 </t>
@@ -615,7 +633,9 @@
           <t>Les utilisateurs de sabres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les professionnels (coiffeurs) font essentiellement usage des modèles purement fonctionnels, à châsse en plastique et à lames jetables (type shavette).
 Les beaux modèles de sabres sont des objets de haute qualité, de fabrication artisanale. On en trouve avec une châsse en différents bois précieux, en ivoire, en os ou en corne d'animaux (buffle). La lame est souvent ornée aux couleurs du fabricant. Ils sont surtout utilisés par des particuliers pour différentes raisons :
@@ -653,7 +673,9 @@
           <t>Acheter un sabre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les derniers grands fabricants sont Thiers Issard et Gentleman Barbier en France, Dovo, Giesen &amp; Forsthoff, Wacker, Revisor, Puma, Böker en Allemagne, Hart Steel aux ÉUA. Des rasoirs personnalisés peuvent être conçus par des artisans. En France, on les trouve dans les coutelleries spécialisées dans le rasage et même chez certains barbiers.
 Les modèles neufs étant généralement classés comme des haut-de-gamme, il faut compter entre 80 € et 120 € (de qualité à partir de 150 €) pour s'en procurer. On en trouve facilement à bon marché dans les brocantes et sur les sites web de vente aux enchères. 
@@ -688,9 +710,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si certaines sources mentionnent que le coupe-choux à lame d'acier aurait fait son apparition au Royaume-Uni - à Sheffield, plus précisément - en 1680, les modèles à lame pliante apparaissant à partir de 1814[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si certaines sources mentionnent que le coupe-choux à lame d'acier aurait fait son apparition au Royaume-Uni - à Sheffield, plus précisément - en 1680, les modèles à lame pliante apparaissant à partir de 1814.
 Une coutume ancienne consistait à utiliser un sabre différent par jour de la semaine afin de laisser les autres reposer après l'affûtage. Les sept sabres, présentés dans un luxueux coffret appelé semainier, étaient la version très haut de gamme de l'instrument de rasage. Un autre accessoire complémentaire traditionnel est l'étui en cuir, notamment pour le voyage.
 L'art de se raser soi-même s'appelle la « pogonotomie ». Si cette possibilité est vue comme une évidence de nos jours, il était cependant normal, jusqu'au milieu du XXe siècle, de se faire raser par un barbier ou, pour les plus riches, par ses domestiques.
 </t>
@@ -721,7 +745,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Centre National de Ressources Textuelles et Lexicales
